--- a/Team-Data/2011-12/4-16-2011-12.xlsx
+++ b/Team-Data/2011-12/4-16-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
         <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.59</v>
+        <v>0.583</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
@@ -684,7 +751,7 @@
         <v>36.4</v>
       </c>
       <c r="J2" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.449</v>
@@ -693,31 +760,31 @@
         <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O2" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P2" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R2" t="n">
         <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
         <v>41.2</v>
       </c>
       <c r="U2" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V2" t="n">
         <v>13.9</v>
@@ -726,34 +793,34 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y2" t="n">
         <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -774,16 +841,16 @@
         <v>13</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>28</v>
@@ -795,10 +862,10 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
         <v>12</v>
@@ -819,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>2.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
@@ -938,16 +1005,16 @@
         <v>8</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>23</v>
@@ -959,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP3" t="n">
         <v>28</v>
@@ -971,19 +1038,19 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
         <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>6</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="n">
-        <v>0.117</v>
+        <v>0.119</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="J4" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.416</v>
+        <v>0.418</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M4" t="n">
         <v>13.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.298</v>
+        <v>0.303</v>
       </c>
       <c r="O4" t="n">
         <v>16.5</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
         <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
         <v>14.3</v>
@@ -1090,7 +1157,7 @@
         <v>6.2</v>
       </c>
       <c r="X4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y4" t="n">
         <v>5.8</v>
@@ -1099,16 +1166,16 @@
         <v>19.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.5</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.3</v>
+        <v>-13.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1144,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
@@ -1159,7 +1226,7 @@
         <v>30</v>
       </c>
       <c r="AU4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1168,10 +1235,10 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
         <v>46</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.754</v>
+        <v>0.767</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J5" t="n">
         <v>82.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>6.4</v>
@@ -1242,7 +1309,7 @@
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O5" t="n">
         <v>15.5</v>
@@ -1275,22 +1342,22 @@
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="AA5" t="n">
         <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1320,13 +1387,13 @@
         <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1353,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1487,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1502,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
@@ -1517,13 +1584,13 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
         <v>26</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -1576,52 +1643,52 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
         <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="n">
-        <v>0.548</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.443</v>
       </c>
       <c r="L7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.341</v>
+        <v>0.339</v>
       </c>
       <c r="O7" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
       <c r="R7" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S7" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T7" t="n">
         <v>42.7</v>
@@ -1633,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>5.2</v>
@@ -1642,13 +1709,13 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.59999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC7" t="n">
         <v>1.2</v>
@@ -1660,22 +1727,22 @@
         <v>12</v>
       </c>
       <c r="AF7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,31 +1751,31 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP7" t="n">
         <v>27</v>
       </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>27</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
         <v>14</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1720,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1782,13 +1849,13 @@
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M8" t="n">
         <v>20.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="O8" t="n">
         <v>19.9</v>
@@ -1797,10 +1864,10 @@
         <v>27.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R8" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S8" t="n">
         <v>32</v>
@@ -1818,10 +1885,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z8" t="n">
         <v>19.7</v>
@@ -1836,19 +1903,19 @@
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1857,7 +1924,7 @@
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1866,7 +1933,7 @@
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1887,13 +1954,13 @@
         <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
         <v>9</v>
@@ -2036,7 +2103,7 @@
         <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2078,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>0.367</v>
+        <v>0.373</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J10" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
         <v>8.199999999999999</v>
@@ -2152,25 +2219,25 @@
         <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O10" t="n">
         <v>14.8</v>
       </c>
       <c r="P10" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T10" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U10" t="n">
         <v>22.4</v>
@@ -2188,19 +2255,19 @@
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA10" t="n">
         <v>16.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.3</v>
+        <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2215,13 +2282,13 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2248,13 +2315,13 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW10" t="n">
         <v>10</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.525</v>
+        <v>0.533</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
@@ -2322,7 +2389,7 @@
         <v>37.7</v>
       </c>
       <c r="J11" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.45</v>
@@ -2331,10 +2398,10 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O11" t="n">
         <v>15.8</v>
@@ -2352,7 +2419,7 @@
         <v>30.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U11" t="n">
         <v>21.2</v>
@@ -2361,10 +2428,10 @@
         <v>14.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y11" t="n">
         <v>5.2</v>
@@ -2376,13 +2443,13 @@
         <v>18.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2394,10 +2461,10 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI11" t="n">
         <v>5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
@@ -2409,16 +2476,16 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2442,10 +2509,10 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ11" t="n">
         <v>22</v>
@@ -2454,10 +2521,10 @@
         <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.639</v>
+        <v>0.633</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,46 +2571,46 @@
         <v>35.4</v>
       </c>
       <c r="J12" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N12" t="n">
-        <v>0.366</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
         <v>20.5</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="V12" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
@@ -2552,37 +2619,37 @@
         <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA12" t="n">
         <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2606,22 +2673,22 @@
         <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
         <v>8</v>
@@ -2636,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
         <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.623</v>
+        <v>0.617</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2689,7 +2756,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
         <v>7.7</v>
@@ -2698,19 +2765,19 @@
         <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P13" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
         <v>0.679</v>
       </c>
       <c r="R13" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S13" t="n">
         <v>29.6</v>
@@ -2728,7 +2795,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y13" t="n">
         <v>4.6</v>
@@ -2740,13 +2807,13 @@
         <v>21.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2779,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
@@ -2803,13 +2870,13 @@
         <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
         <v>24</v>
@@ -2818,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC13" t="n">
         <v>8</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>2.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI14" t="n">
         <v>14</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>22</v>
@@ -3000,7 +3067,7 @@
         <v>9</v>
       </c>
       <c r="BB14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
@@ -3128,7 +3195,7 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
@@ -3140,31 +3207,31 @@
         <v>28</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3179,13 +3246,13 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.717</v>
+        <v>0.712</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,7 +3299,7 @@
         <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.474</v>
@@ -3247,22 +3314,22 @@
         <v>0.363</v>
       </c>
       <c r="O16" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T16" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
@@ -3271,7 +3338,7 @@
         <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
@@ -3292,22 +3359,22 @@
         <v>6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>4</v>
       </c>
       <c r="AH16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3316,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>23</v>
@@ -3331,19 +3398,19 @@
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV16" t="n">
         <v>17</v>
@@ -3355,13 +3422,13 @@
         <v>9</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3513,7 +3580,7 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
@@ -3528,16 +3595,16 @@
         <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="n">
         <v>13</v>
@@ -3549,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.403</v>
+        <v>0.41</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
         <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O18" t="n">
         <v>19.4</v>
@@ -3617,7 +3684,7 @@
         <v>25.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
         <v>12.3</v>
@@ -3629,31 +3696,31 @@
         <v>43.8</v>
       </c>
       <c r="U18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W18" t="n">
         <v>6.8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z18" t="n">
         <v>18.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.9</v>
+        <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3668,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
@@ -3695,19 +3762,19 @@
         <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
@@ -3716,19 +3783,19 @@
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -3760,46 +3827,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="n">
         <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.355</v>
+        <v>0.361</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J19" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L19" t="n">
         <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N19" t="n">
         <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R19" t="n">
         <v>12.1</v>
@@ -3808,7 +3875,7 @@
         <v>28.3</v>
       </c>
       <c r="T19" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U19" t="n">
         <v>20.1</v>
@@ -3820,7 +3887,7 @@
         <v>7.6</v>
       </c>
       <c r="X19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y19" t="n">
         <v>5</v>
@@ -3844,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
         <v>24</v>
@@ -3853,10 +3920,10 @@
         <v>27</v>
       </c>
       <c r="AI19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,16 +3935,16 @@
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
         <v>10</v>
@@ -3889,16 +3956,16 @@
         <v>26</v>
       </c>
       <c r="AU19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY19" t="n">
         <v>16</v>
@@ -3907,10 +3974,10 @@
         <v>12</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
         <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>0.311</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="J20" t="n">
         <v>77.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
@@ -3972,55 +4039,55 @@
         <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="O20" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P20" t="n">
         <v>20.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
         <v>11</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V20" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>89.5</v>
+        <v>89.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4038,22 +4105,22 @@
         <v>24</v>
       </c>
       <c r="AJ20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL20" t="n">
         <v>29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
@@ -4062,10 +4129,10 @@
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4077,13 +4144,13 @@
         <v>25</v>
       </c>
       <c r="AW20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX20" t="n">
         <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
         <v>16</v>
@@ -4235,7 +4302,7 @@
         <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP21" t="n">
         <v>4</v>
@@ -4247,7 +4314,7 @@
         <v>15</v>
       </c>
       <c r="AS21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
         <v>14</v>
@@ -4256,13 +4323,13 @@
         <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY21" t="n">
         <v>18</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -4306,67 +4373,67 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="n">
         <v>44</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.721</v>
+        <v>0.733</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L22" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
         <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O22" t="n">
         <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.799</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
         <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
         <v>7.6</v>
       </c>
       <c r="X22" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="Y22" t="n">
         <v>4.7</v>
@@ -4378,31 +4445,31 @@
         <v>20.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
@@ -4414,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,16 +4496,16 @@
         <v>20</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
         <v>17</v>
@@ -4453,7 +4520,7 @@
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -4488,58 +4555,58 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="n">
         <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0.59</v>
+        <v>0.583</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="J23" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
         <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="N23" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O23" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="P23" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.658</v>
+        <v>0.656</v>
       </c>
       <c r="R23" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
         <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
         <v>15</v>
@@ -4554,40 +4621,40 @@
         <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
         <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4617,10 +4684,10 @@
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>26</v>
@@ -4635,7 +4702,7 @@
         <v>4</v>
       </c>
       <c r="BA23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BB23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="n">
         <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" t="n">
-        <v>0.517</v>
+        <v>0.525</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J24" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L24" t="n">
         <v>5.2</v>
@@ -4700,10 +4767,10 @@
         <v>14.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="P24" t="n">
         <v>17.9</v>
@@ -4712,16 +4779,16 @@
         <v>0.741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V24" t="n">
         <v>11.1</v>
@@ -4733,37 +4800,37 @@
         <v>5.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
         <v>16.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>14</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>5</v>
@@ -4772,13 +4839,13 @@
         <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4787,19 +4854,19 @@
         <v>30</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J25" t="n">
         <v>82.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O25" t="n">
         <v>16.1</v>
       </c>
       <c r="P25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
         <v>10.8</v>
@@ -4903,7 +4970,7 @@
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V25" t="n">
         <v>14</v>
@@ -4921,46 +4988,46 @@
         <v>18.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4969,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -4978,13 +5045,13 @@
         <v>15</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -4993,16 +5060,16 @@
         <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" t="n">
-        <v>0.452</v>
+        <v>0.459</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.446</v>
@@ -5073,19 +5140,19 @@
         <v>21.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.795</v>
+        <v>0.796</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
         <v>14.1</v>
@@ -5106,10 +5173,10 @@
         <v>19.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
@@ -5142,22 +5209,22 @@
         <v>9</v>
       </c>
       <c r="AN26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO26" t="n">
         <v>13</v>
       </c>
-      <c r="AO26" t="n">
-        <v>12</v>
-      </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5175,19 +5242,19 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
         <v>10</v>
       </c>
       <c r="BA26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB26" t="n">
         <v>13</v>
       </c>
-      <c r="BB26" t="n">
-        <v>12</v>
-      </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,10 +5373,10 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5333,16 +5400,16 @@
         <v>10</v>
       </c>
       <c r="AQ27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5354,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.729</v>
+        <v>0.724</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,40 +5483,40 @@
         <v>38.9</v>
       </c>
       <c r="J28" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="O28" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="P28" t="n">
         <v>21.3</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O28" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>21.6</v>
-      </c>
       <c r="Q28" t="n">
-        <v>0.742</v>
+        <v>0.739</v>
       </c>
       <c r="R28" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S28" t="n">
         <v>32.4</v>
       </c>
       <c r="T28" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U28" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V28" t="n">
         <v>13.5</v>
@@ -5464,19 +5531,19 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.1</v>
+        <v>101.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5485,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH28" t="n">
         <v>14</v>
@@ -5497,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL28" t="n">
         <v>2</v>
@@ -5509,25 +5576,25 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.355</v>
+        <v>0.361</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5607,22 +5674,22 @@
         <v>5.6</v>
       </c>
       <c r="M29" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O29" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P29" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R29" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S29" t="n">
         <v>31.2</v>
@@ -5646,16 +5713,16 @@
         <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.5</v>
+        <v>-3.2</v>
       </c>
       <c r="AD29" t="n">
         <v>1</v>
@@ -5664,7 +5731,7 @@
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
         <v>24</v>
@@ -5673,22 +5740,22 @@
         <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>15</v>
@@ -5697,13 +5764,13 @@
         <v>17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>19</v>
@@ -5712,13 +5779,13 @@
         <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>15</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.516</v>
+        <v>0.508</v>
       </c>
       <c r="H30" t="n">
-        <v>49</v>
+        <v>48.7</v>
       </c>
       <c r="I30" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J30" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.456</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M30" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.316</v>
+        <v>0.312</v>
       </c>
       <c r="O30" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P30" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S30" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T30" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U30" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W30" t="n">
         <v>8.199999999999999</v>
@@ -5828,13 +5895,13 @@
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.1</v>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5864,7 +5931,7 @@
         <v>9</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM30" t="n">
         <v>29</v>
@@ -5873,7 +5940,7 @@
         <v>29</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
@@ -5885,31 +5952,31 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
         <v>46</v>
       </c>
       <c r="G31" t="n">
-        <v>0.246</v>
+        <v>0.233</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,28 +6029,28 @@
         <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M31" t="n">
         <v>16.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.319</v>
+        <v>0.321</v>
       </c>
       <c r="O31" t="n">
         <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
@@ -6001,28 +6068,28 @@
         <v>15.3</v>
       </c>
       <c r="W31" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
         <v>21.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -6046,19 +6113,19 @@
         <v>25</v>
       </c>
       <c r="AL31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
         <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6067,10 +6134,10 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,22 +6146,22 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-16-2011-12</t>
+          <t>2012-04-16</t>
         </is>
       </c>
     </row>
